--- a/AFS/Sources/Data/ALCS_AXIS18294/ALCS_AXIS.xlsx
+++ b/AFS/Sources/Data/ALCS_AXIS18294/ALCS_AXIS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Clients\TeamLease\ALCS Letters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AdventsProduct\V1.1.0\AFS\Sources\Data\ALCS_AXIS18294\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C773778D-023C-4CE1-8B58-35FE8053125A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF85071-06F7-4403-9171-D95AD192D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{D542FF0A-0786-416D-AE0B-1BB67BC40E36}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="258">
   <si>
     <t>Bank Name</t>
   </si>
@@ -802,6 +802,12 @@
   </si>
   <si>
     <t>2124000</t>
+  </si>
+  <si>
+    <t>AXIS'</t>
+  </si>
+  <si>
+    <t>"009010200018294"</t>
   </si>
 </sst>
 </file>
@@ -840,9 +846,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0727C-29C1-4C66-89A5-BC4F52C5435B}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,11 +1245,11 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="A2" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
